--- a/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
+++ b/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>ПЛАТЕЖНЫЙ ДОКУМЕНТ</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t xml:space="preserve">РАСЧЕТ РАЗМЕРА ПЛАТЫ ЗА КОММУНАЛЬНЫЕ УСЛУГИ </t>
+  </si>
+  <si>
+    <t>ВНИМАНИЕ! ПОКАЗАНИЯ СЧЕТЧИКОВ ПО ГОРЯЧЕЙ И ХОЛОДНОЙ ВОДЫ ПЕРЕДАВАЙТЕ С 15 ПО 25 ЕЖЕМЕСЯЧНО</t>
+  </si>
+  <si>
+    <t>ЧЕРЕЗ САЙТ ГОСУСЛУГИ В ПРИЛОЖЕНИИ ГИС ЖКХ ИЛИ УСТАНОВИВ МОБИЛЬНОЕ ПРИЛОЖЕНИЕ ГОСУСЛУГИ ДОМ.</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -359,6 +365,14 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -598,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -676,6 +690,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,10 +1064,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H4"/>
+      <selection activeCell="V29" sqref="V29:X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1071,22 +1086,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="12" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
       <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
@@ -1104,34 +1119,34 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="26"/>
       <c r="J3" s="1" t="s">
         <v>84</v>
@@ -1140,14 +1155,14 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="34"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1352,40 +1367,40 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="43" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="55" t="s">
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="55" t="s">
+      <c r="K16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="56" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="18">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="28" t="s">
         <v>12</v>
       </c>
@@ -1404,25 +1419,25 @@
       <c r="I17" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49"/>
       <c r="O18" s="35" t="s">
         <v>40</v>
       </c>
@@ -1488,14 +1503,14 @@
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="12" t="s">
         <v>60</v>
       </c>
@@ -1563,19 +1578,19 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="59" t="s">
+      <c r="C22" s="61"/>
+      <c r="D22" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -1584,17 +1599,17 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:26" ht="12.75">
-      <c r="A23" s="65"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="59" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="59" t="s">
+      <c r="E23" s="61"/>
+      <c r="F23" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="60"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -1612,18 +1627,18 @@
       <c r="A24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="61" t="s">
+      <c r="C24" s="68"/>
+      <c r="D24" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61" t="s">
+      <c r="E24" s="62"/>
+      <c r="F24" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="62"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -1670,54 +1685,64 @@
         <v>67</v>
       </c>
       <c r="Q25" s="35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="63" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="63"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="O27" s="35" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+    </row>
+    <row r="28" spans="1:26" ht="12" customHeight="1">
+      <c r="A28" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="12" customHeight="1">
+      <c r="A29" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="O29" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="P27" s="35" t="s">
+      <c r="P29" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="V27" s="36" t="s">
+      <c r="V29" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="W27" s="36" t="s">
+      <c r="W29" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="X27" s="36">
+      <c r="X29" s="36">
         <v>37</v>
       </c>
     </row>

--- a/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
+++ b/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
@@ -246,9 +246,6 @@
     <t>$t3['tarif3']</t>
   </si>
   <si>
-    <t>"Телефон горячей линии ".$this-&gt;H['telephone3']</t>
-  </si>
-  <si>
     <t>"ИТОГО к оплате на 01.".sprintf('%02d',$this-&gt;H['next_nom_month']).".".sprintf('%02d',$this-&gt;H['next_year'])." с учетом задолженности."</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>ЧЕРЕЗ САЙТ ГОСУСЛУГИ В ПРИЛОЖЕНИИ ГИС ЖКХ ИЛИ УСТАНОВИВ МОБИЛЬНОЕ ПРИЛОЖЕНИЕ ГОСУСЛУГИ ДОМ.</t>
+  </si>
+  <si>
+    <t>"Телефон - ".$this-&gt;H['telephone3']</t>
   </si>
 </sst>
 </file>
@@ -691,6 +691,32 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -727,9 +753,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -738,29 +761,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29:X29"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1086,22 +1086,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="12" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
-      <c r="J1" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
+      <c r="J1" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
       <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
@@ -1119,57 +1119,57 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="26"/>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="34"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="12" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="39"/>
@@ -1200,10 +1200,10 @@
         <v>36</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1226,16 +1226,16 @@
         <v>38</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:18" ht="12" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1251,7 +1251,7 @@
         <v>37</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>72</v>
@@ -1270,7 +1270,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="K9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M9" s="3"/>
       <c r="O9" s="3"/>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>72</v>
@@ -1367,40 +1367,40 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="44" t="s">
+      <c r="D16" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="56" t="s">
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="48" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="18">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="28" t="s">
         <v>12</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>12</v>
@@ -1417,27 +1417,27 @@
         <v>13</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
+        <v>93</v>
+      </c>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
       <c r="O18" s="35" t="s">
         <v>40</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>57</v>
@@ -1477,7 +1477,7 @@
         <v>54</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>52</v>
@@ -1503,14 +1503,14 @@
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="12" t="s">
         <v>60</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>61</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>59</v>
@@ -1578,19 +1578,19 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="60" t="s">
+      <c r="B22" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -1599,17 +1599,17 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:26" ht="12.75">
-      <c r="A23" s="66"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="60" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="60" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="61"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -1627,18 +1627,18 @@
       <c r="A24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62" t="s">
+      <c r="E24" s="44"/>
+      <c r="F24" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -1692,43 +1692,43 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="64" t="s">
+      <c r="A26" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="64"/>
+      <c r="K26" s="46"/>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1">
       <c r="A28" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1">
       <c r="A29" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="35" t="s">
         <v>42</v>
@@ -1748,16 +1748,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="A26:I27"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="G16:I16"/>
@@ -1773,6 +1763,16 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="C3:H4"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="A26:I27"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0" footer="0"/>

--- a/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
+++ b/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t>ПЛАТЕЖНЫЙ ДОКУМЕНТ</t>
   </si>
@@ -303,13 +303,10 @@
     <t xml:space="preserve">РАСЧЕТ РАЗМЕРА ПЛАТЫ ЗА КОММУНАЛЬНЫЕ УСЛУГИ </t>
   </si>
   <si>
-    <t>ВНИМАНИЕ! ПОКАЗАНИЯ СЧЕТЧИКОВ ПО ГОРЯЧЕЙ И ХОЛОДНОЙ ВОДЫ ПЕРЕДАВАЙТЕ С 15 ПО 25 ЕЖЕМЕСЯЧНО</t>
-  </si>
-  <si>
-    <t>ЧЕРЕЗ САЙТ ГОСУСЛУГИ В ПРИЛОЖЕНИИ ГИС ЖКХ ИЛИ УСТАНОВИВ МОБИЛЬНОЕ ПРИЛОЖЕНИЕ ГОСУСЛУГИ ДОМ.</t>
-  </si>
-  <si>
     <t>"Телефон - ".$this-&gt;H['telephone3']</t>
+  </si>
+  <si>
+    <t>ВНИМАНИЕ! С 01.07.2024 г. будет повышение тарифов ЖКХ по квартплате и коммунальные услуги.</t>
   </si>
 </sst>
 </file>
@@ -321,7 +318,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -367,10 +364,15 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -612,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -690,33 +692,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -753,6 +728,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,6 +739,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +1074,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A28" sqref="A28:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1086,22 +1093,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="12" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
-      <c r="J1" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62"/>
+      <c r="J1" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
       <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
@@ -1119,34 +1126,34 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="26"/>
       <c r="J3" s="1" t="s">
         <v>83</v>
@@ -1155,14 +1162,14 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="34"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1367,40 +1374,40 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="54" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="48" t="s">
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="48" t="s">
+      <c r="L16" s="55" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="18">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="28" t="s">
         <v>12</v>
       </c>
@@ -1419,25 +1426,25 @@
       <c r="I17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="48"/>
       <c r="O18" s="35" t="s">
         <v>40</v>
       </c>
@@ -1503,14 +1510,14 @@
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="12" t="s">
         <v>60</v>
       </c>
@@ -1578,19 +1585,19 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="42" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -1599,17 +1606,17 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:26" ht="12.75">
-      <c r="A23" s="49"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="42" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="42" t="s">
+      <c r="E23" s="60"/>
+      <c r="F23" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="43"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -1627,18 +1634,18 @@
       <c r="A24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="44" t="s">
+      <c r="C24" s="67"/>
+      <c r="D24" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44" t="s">
+      <c r="E24" s="61"/>
+      <c r="F24" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -1692,44 +1699,66 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="46" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="46"/>
+      <c r="K26" s="63"/>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1">
-      <c r="A28" s="41" t="s">
-        <v>95</v>
-      </c>
+      <c r="A28" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1">
-      <c r="A29" s="41" t="s">
-        <v>96</v>
-      </c>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
       <c r="O29" s="35" t="s">
         <v>42</v>
       </c>
@@ -1747,7 +1776,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="A28:M29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="A26:I27"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="G16:I16"/>
@@ -1763,16 +1803,6 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="C3:H4"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="A26:I27"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0" footer="0"/>

--- a/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
+++ b/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
@@ -306,7 +306,7 @@
     <t>"Телефон - ".$this-&gt;H['telephone3']</t>
   </si>
   <si>
-    <t>ВНИМАНИЕ! С 01.07.2024 г. будет повышение тарифов ЖКХ по квартплате и коммунальные услуги.</t>
+    <t>ВНИМАНИЕ! С 01.07.2024 г. будет повышение тарифов ЖКХ по квартплате и коммунальным услугам.</t>
   </si>
 </sst>
 </file>
@@ -692,6 +692,38 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,9 +760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,35 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:M29"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1093,22 +1093,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="12" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63"/>
       <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
@@ -1126,34 +1126,34 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="26"/>
       <c r="J3" s="1" t="s">
         <v>83</v>
@@ -1162,14 +1162,14 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="34"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1374,40 +1374,40 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="43" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="55" t="s">
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="55" t="s">
+      <c r="K16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="18">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="28" t="s">
         <v>12</v>
       </c>
@@ -1426,25 +1426,25 @@
       <c r="I17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="60"/>
       <c r="O18" s="35" t="s">
         <v>40</v>
       </c>
@@ -1510,14 +1510,14 @@
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="12" t="s">
         <v>60</v>
       </c>
@@ -1585,19 +1585,19 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="59" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -1606,17 +1606,17 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:26" ht="12.75">
-      <c r="A23" s="65"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="59" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="59" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="60"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -1634,18 +1634,18 @@
       <c r="A24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="61" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61" t="s">
+      <c r="E24" s="45"/>
+      <c r="F24" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="62"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -1699,66 +1699,66 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="63" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="63"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
       <c r="O29" s="35" t="s">
         <v>42</v>
       </c>
@@ -1777,17 +1777,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A28:M29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="A26:I27"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="G16:I16"/>
@@ -1803,6 +1792,17 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="C3:H4"/>
+    <mergeCell ref="A28:M29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="A26:I27"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0" footer="0"/>

--- a/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
+++ b/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
@@ -614,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -692,37 +692,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -760,6 +731,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,6 +742,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1093,22 +1096,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="12" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="63"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
       <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
@@ -1126,34 +1129,34 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="26"/>
       <c r="J3" s="1" t="s">
         <v>83</v>
@@ -1162,14 +1165,14 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="34"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1374,40 +1377,40 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="55" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="49" t="s">
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="49" t="s">
+      <c r="L16" s="56" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="18">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="28" t="s">
         <v>12</v>
       </c>
@@ -1426,25 +1429,25 @@
       <c r="I17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="60"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49"/>
       <c r="O18" s="35" t="s">
         <v>40</v>
       </c>
@@ -1510,14 +1513,14 @@
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="12" t="s">
         <v>60</v>
       </c>
@@ -1585,19 +1588,19 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -1606,17 +1609,17 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:26" ht="12.75">
-      <c r="A23" s="50"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="43" t="s">
+      <c r="E23" s="62"/>
+      <c r="F23" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="44"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -1634,18 +1637,18 @@
       <c r="A24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="45" t="s">
+      <c r="C24" s="69"/>
+      <c r="D24" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45" t="s">
+      <c r="E24" s="63"/>
+      <c r="F24" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="46"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -1699,66 +1702,66 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="47" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="47"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="41"/>
       <c r="O29" s="35" t="s">
         <v>42</v>
       </c>
@@ -1777,6 +1780,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="A26:I27"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A28:L29"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="G16:I16"/>
@@ -1792,17 +1806,6 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="C3:H4"/>
-    <mergeCell ref="A28:M29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="A26:I27"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0" footer="0"/>

--- a/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
+++ b/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
@@ -306,7 +306,7 @@
     <t>"Телефон - ".$this-&gt;H['telephone3']</t>
   </si>
   <si>
-    <t>ВНИМАНИЕ! С 01.07.2024 г. будет повышение тарифов ЖКХ по квартплате и коммунальным услугам.</t>
+    <t>Передавайте показания на нашем сайте  https://energokompaniya.ru//, в моб. приложении «Госуслуги. Дом» или  "Платосфера"</t>
   </si>
 </sst>
 </file>
@@ -318,7 +318,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -363,17 +363,25 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial Cyr"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
       <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -692,8 +700,34 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -731,9 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,34 +774,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,7 +1085,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1096,22 +1104,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="12" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
       <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
@@ -1129,34 +1137,34 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="26"/>
       <c r="J3" s="1" t="s">
         <v>83</v>
@@ -1165,14 +1173,14 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="34"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1377,40 +1385,40 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="44" t="s">
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="56" t="s">
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="48" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="18">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="28" t="s">
         <v>12</v>
       </c>
@@ -1429,25 +1437,25 @@
       <c r="I17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
       <c r="O18" s="35" t="s">
         <v>40</v>
       </c>
@@ -1513,14 +1521,14 @@
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="12" t="s">
         <v>60</v>
       </c>
@@ -1588,19 +1596,19 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="61" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -1609,17 +1617,17 @@
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:26" ht="12.75">
-      <c r="A23" s="67"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="61" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="61" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -1637,18 +1645,18 @@
       <c r="A24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="63" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63" t="s">
+      <c r="E24" s="44"/>
+      <c r="F24" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="64"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -1702,37 +1710,37 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="65" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="65"/>
+      <c r="K26" s="46"/>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="69" t="s">
         <v>96</v>
       </c>
       <c r="B28" s="70"/>
@@ -1780,16 +1788,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="A26:I27"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A28:L29"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -1806,6 +1804,16 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="C3:H4"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="A26:I27"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0" footer="0"/>

--- a/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
+++ b/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
   <si>
     <t>ПЛАТЕЖНЫЙ ДОКУМЕНТ</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Итого к оплате за расчетный период, руб.</t>
   </si>
   <si>
-    <t>Коммунальные услуги</t>
-  </si>
-  <si>
-    <t>Итого коммунальные услуги</t>
-  </si>
-  <si>
     <t>предыдущее</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Block</t>
   </si>
   <si>
-    <t>Block2</t>
-  </si>
-  <si>
     <t>EndBlock</t>
   </si>
   <si>
@@ -300,13 +291,13 @@
     <t>По тарифу РСО</t>
   </si>
   <si>
-    <t xml:space="preserve">РАСЧЕТ РАЗМЕРА ПЛАТЫ ЗА КОММУНАЛЬНЫЕ УСЛУГИ </t>
-  </si>
-  <si>
     <t>"Телефон - ".$this-&gt;H['telephone3']</t>
   </si>
   <si>
     <t>Передавайте показания на нашем сайте  https://energokompaniya.ru//, в моб. приложении «Госуслуги. Дом» или  "Платосфера"</t>
+  </si>
+  <si>
+    <t>Итого:</t>
   </si>
 </sst>
 </file>
@@ -622,10 +613,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -703,6 +693,59 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -717,9 +760,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,57 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,10 +1071,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1104,716 +1093,679 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="12" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62"/>
-      <c r="N1" s="31" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
+      <c r="N1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="Q1" s="31">
+        <v>16</v>
+      </c>
+      <c r="R1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="32" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="12" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+    </row>
+    <row r="3" spans="1:18" ht="12" customHeight="1">
+      <c r="A3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="32">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="12" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="33"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="12" customHeight="1">
+      <c r="A5" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="12" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="12" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="12" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="12" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="K9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="12" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="12" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="12" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="12" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="12" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="12" customHeight="1">
+      <c r="A15" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="18">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+    </row>
+    <row r="17" spans="1:26" s="10" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="35">
+        <v>1</v>
+      </c>
+      <c r="R17" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="13"/>
+    </row>
+    <row r="18" spans="1:26" ht="12" customHeight="1">
+      <c r="A18" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="36">
+        <v>1</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" s="35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1">
-      <c r="A2" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
-    </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1">
-      <c r="A3" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="34"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="12" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="24" t="s">
+      <c r="W18" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+    </row>
+    <row r="19" spans="1:26" ht="12" customHeight="1">
+      <c r="O19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" ht="12" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="12" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="K9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="P19" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="34">
+        <v>3</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="12" customHeight="1">
+      <c r="A20" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:26" ht="12.75">
+      <c r="A21" s="66"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="61"/>
+      <c r="F21" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="61"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="O21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" ht="12" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" ht="12" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" ht="12" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" ht="12" customHeight="1">
-      <c r="A16" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" ht="18">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-    </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
-      <c r="O18" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="35">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" s="36">
-        <v>1</v>
-      </c>
-      <c r="R19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="S19" s="14"/>
-    </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="P21" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="37">
-        <v>1</v>
-      </c>
-      <c r="R20" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="S20" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T20" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="V20" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="W20" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="X20" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z20" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1">
-      <c r="O21" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q21" s="35">
-        <v>3</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="A22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="63"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="1:26" ht="12.75">
-      <c r="A23" s="49"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="42" t="s">
+      <c r="O22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="O23" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="P23" s="35" t="s">
+      <c r="P22" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>1</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" s="13"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="X22" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="12" customHeight="1">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="O23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="34" t="s">
         <v>64</v>
       </c>
+      <c r="Q23" s="34">
+        <v>5</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="44" t="s">
+      <c r="A24" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="O24" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q24" s="36">
-        <v>1</v>
-      </c>
-      <c r="R24" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="S24" s="14"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="W24" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="X24" s="36">
-        <v>0</v>
-      </c>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:26" ht="12" customHeight="1">
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="O25" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q25" s="35">
-        <v>5</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="K26" s="46"/>
+      <c r="A26" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-    </row>
-    <row r="28" spans="1:26" ht="12" customHeight="1">
-      <c r="A28" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="41"/>
-    </row>
-    <row r="29" spans="1:26" ht="12" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="41"/>
-      <c r="O29" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="P29" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="V29" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="W29" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="X29" s="36">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="40"/>
+      <c r="O27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="V27" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="W27" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="X27" s="35">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A28:L29"/>
+  <mergeCells count="25">
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="A24:I25"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A26:L27"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="J1:L2"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="C3:H4"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="A26:I27"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0" footer="0"/>

--- a/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
+++ b/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
@@ -294,10 +294,10 @@
     <t>"Телефон - ".$this-&gt;H['telephone3']</t>
   </si>
   <si>
-    <t>Передавайте показания на нашем сайте  https://energokompaniya.ru//, в моб. приложении «Госуслуги. Дом» или  "Платосфера"</t>
-  </si>
-  <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>Внимание! С 01.07.2025 повышение тарифов по кварт.плате и коммунальным услугам ЖКХ.</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -368,7 +368,7 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="13.5"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="204"/>
@@ -693,11 +693,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -734,9 +754,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,28 +763,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1093,22 +1093,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="12" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60"/>
       <c r="N1" s="30" t="s">
         <v>20</v>
       </c>
@@ -1126,34 +1126,34 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="25"/>
       <c r="J3" s="1" t="s">
         <v>80</v>
@@ -1162,14 +1162,14 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="33"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1367,40 +1367,40 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="45" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="56" t="s">
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="47" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="18">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="27" t="s">
         <v>12</v>
       </c>
@@ -1419,9 +1419,9 @@
       <c r="I16" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
@@ -1478,14 +1478,14 @@
       <c r="S17" s="13"/>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="A18" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="11" t="s">
         <v>57</v>
       </c>
@@ -1549,19 +1549,19 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="60" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -1570,17 +1570,17 @@
       <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:26" ht="12.75">
-      <c r="A21" s="66"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="60" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="60" t="s">
+      <c r="E21" s="42"/>
+      <c r="F21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="61"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -1598,18 +1598,18 @@
       <c r="A22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="62" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="63"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -1663,65 +1663,65 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="64" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="64"/>
+      <c r="K24" s="45"/>
     </row>
     <row r="25" spans="1:26" ht="12" customHeight="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="A26" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
       <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
       <c r="M27" s="40"/>
       <c r="O27" s="34" t="s">
         <v>39</v>
@@ -1741,15 +1741,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="A24:I25"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A26:L27"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -1766,6 +1757,15 @@
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="A24:I25"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0" footer="0"/>

--- a/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
+++ b/Reports/ForPopulation/InformationBillBigRSO_Small/InformationBillBigRSO_Small.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\REPORTS-test\Reports\ForPopulation\InformationBillBigRSO_Small\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE079311-4BCA-4A21-8874-EC63EE626071}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="17100" windowHeight="10110"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="17100" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="94">
   <si>
     <t>ПЛАТЕЖНЫЙ ДОКУМЕНТ</t>
   </si>
@@ -297,19 +303,19 @@
     <t>Итого:</t>
   </si>
   <si>
-    <t>Внимание! С 01.07.2025 повышение тарифов по кварт.плате и коммунальным услугам ЖКХ.</t>
+    <t>Внимание! С 01.01.2026 изменение нормативов потребления по отоплению в домах с общедомовыми приборами.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -360,7 +366,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13.5"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -368,7 +374,8 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="13.5"/>
+      <b/>
+      <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="204"/>
@@ -693,32 +700,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -754,6 +735,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -762,6 +746,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -780,6 +787,14 @@
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -826,7 +841,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -858,9 +873,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,6 +925,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1067,17 +1118,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
@@ -1092,23 +1143,23 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12" customHeight="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
       <c r="N1" s="30" t="s">
         <v>20</v>
       </c>
@@ -1125,35 +1176,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
-    </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="25"/>
       <c r="J3" s="1" t="s">
         <v>80</v>
@@ -1161,20 +1212,20 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="33"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1">
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>87</v>
       </c>
@@ -1189,7 +1240,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:18" ht="12" customHeight="1">
+    <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1215,7 +1266,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1">
+    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +1291,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="12" customHeight="1">
+    <row r="8" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>76</v>
       </c>
@@ -1266,7 +1317,7 @@
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:18" ht="12" customHeight="1">
+    <row r="9" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -1282,7 +1333,7 @@
       <c r="M9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1">
+    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
@@ -1297,7 +1348,7 @@
       <c r="M10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1">
+    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1364,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1">
+    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1331,7 +1382,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:18" ht="12" customHeight="1">
+    <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -1349,7 +1400,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="12" customHeight="1">
+    <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1366,41 +1417,41 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="12" customHeight="1">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="53" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="47" t="s">
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="54" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:18" ht="18">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
+    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="27" t="s">
         <v>12</v>
       </c>
@@ -1419,14 +1470,14 @@
       <c r="I16" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
     </row>
-    <row r="17" spans="1:26" s="10" customFormat="1" ht="12" customHeight="1">
+    <row r="17" spans="1:26" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>55</v>
       </c>
@@ -1477,15 +1528,15 @@
       </c>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="56" t="s">
+    <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="11" t="s">
         <v>57</v>
       </c>
@@ -1534,7 +1585,7 @@
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" ht="12" customHeight="1">
+    <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O19" s="34" t="s">
         <v>38</v>
       </c>
@@ -1548,20 +1599,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="47" t="s">
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="41" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -1569,18 +1620,18 @@
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="1:26" ht="12.75">
-      <c r="A21" s="48"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="41" t="s">
+    <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="64"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="41" t="s">
+      <c r="E21" s="59"/>
+      <c r="F21" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="42"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -1594,22 +1645,22 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1">
+    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43" t="s">
+      <c r="E22" s="60"/>
+      <c r="F22" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="44"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -1641,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1">
+    <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
@@ -1662,37 +1713,37 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1">
-      <c r="A24" s="45" t="s">
+    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="45" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="45"/>
-    </row>
-    <row r="25" spans="1:26" ht="12" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-    </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1">
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="67" t="s">
         <v>93</v>
       </c>
@@ -1709,7 +1760,7 @@
       <c r="L26" s="68"/>
       <c r="M26" s="40"/>
     </row>
-    <row r="27" spans="1:26" ht="12" customHeight="1">
+    <row r="27" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="68"/>
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
@@ -1741,6 +1792,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="A24:I25"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="A26:L27"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -1757,15 +1817,6 @@
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="A24:I25"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.31496062992125984" header="0" footer="0"/>
@@ -1775,12 +1826,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1789,12 +1840,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
